--- a/data/trans_bre/P16-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,53%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,6; 19,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,72; 16,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,35; 20,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,02; 16,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,28; 32,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,23; 24,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,35; 31,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,75; 24,88</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,85</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,75</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,5</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,71</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,69%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,36; 19,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,7; 23,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,22; 16,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,24; 20,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,58; 66,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,13; 58,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,28; 38,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,55; 44,42</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,75%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,31; 23,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,19; 24,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,92; 15,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 10,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,32; 76,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,8; 66,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,22; 37,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 20,32</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,79</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,14</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,5</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,94%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,47; 20,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,41; 22,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,72; 17,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,47; 16,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,26; 52,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,55; 44,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,77; 36,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,62; 33,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,36</t>
+          <t>12,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>18,03%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,02; 16,79</t>
+          <t>8,41; 17,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,75; 24,88</t>
+          <t>11,27; 25,42</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,71</t>
+          <t>19,47</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>44,63%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,24; 20,09</t>
+          <t>11,36; 35,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,55; 44,42</t>
+          <t>24,03; 110,04</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>9,66%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 10,03</t>
+          <t>-0,84; 10,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 20,32</t>
+          <t>-1,42; 20,9</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,5</t>
+          <t>16,94</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>34,35%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,47; 16,72</t>
+          <t>11,22; 29,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,62; 33,17</t>
+          <t>21,02; 76,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,6; 19,21</t>
+          <t>11,22; 18,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,72; 16,82</t>
+          <t>9,77; 16,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,35; 20,29</t>
+          <t>12,36; 20,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,41; 17,21</t>
+          <t>8,37; 17,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,28; 32,74</t>
+          <t>17,7; 32,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,23; 24,35</t>
+          <t>13,21; 23,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,35; 31,03</t>
+          <t>17,42; 31,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,27; 25,42</t>
+          <t>11,33; 25,44</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,36; 19,09</t>
+          <t>12,42; 19,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,7; 23,4</t>
+          <t>16,45; 23,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,22; 16,42</t>
+          <t>10,15; 16,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,36; 35,7</t>
+          <t>10,9; 34,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,58; 66,65</t>
+          <t>38,81; 65,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,13; 58,18</t>
+          <t>37,16; 57,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,28; 38,44</t>
+          <t>22,29; 39,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,03; 110,04</t>
+          <t>22,52; 110,06</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,31; 23,2</t>
+          <t>11,03; 23,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,19; 24,98</t>
+          <t>10,44; 24,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 15,9</t>
+          <t>3,49; 16,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 10,34</t>
+          <t>-0,53; 10,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,32; 76,24</t>
+          <t>30,3; 79,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,8; 66,39</t>
+          <t>22,73; 65,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,22; 37,67</t>
+          <t>7,38; 38,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 20,9</t>
+          <t>-0,96; 21,91</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,47; 20,37</t>
+          <t>15,7; 20,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,41; 22,09</t>
+          <t>17,37; 21,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,72; 17,48</t>
+          <t>13,04; 17,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,22; 29,93</t>
+          <t>11,15; 29,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,26; 52,15</t>
+          <t>37,43; 52,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,55; 44,98</t>
+          <t>33,47; 44,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,77; 36,21</t>
+          <t>25,73; 36,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,02; 76,65</t>
+          <t>21,3; 76,89</t>
         </is>
       </c>
     </row>
